--- a/Webstore/target/test-classes/TestData.xlsx
+++ b/Webstore/target/test-classes/TestData.xlsx
@@ -193,7 +193,7 @@
 &lt;/build&gt;</t>
   </si>
   <si>
-    <t>ushasri77@gmail.com</t>
+    <t>ushasr01@gmail.com</t>
   </si>
 </sst>
 </file>
